--- a/cypress/downloads/EnglishExcelTemplate.xlsx
+++ b/cypress/downloads/EnglishExcelTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetuzgor/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdulkerim.hicip\Desktop\product-catalog-dev-work-order-excell-templates (1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB67919-C0C9-DA4C-B9E8-B2AD4478D1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514DE863-3D55-415D-B62F-577FE7CAE7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" xr2:uid="{7B5CF402-CF17-AC45-B0F4-F17CEBA46C2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B5CF402-CF17-AC45-B0F4-F17CEBA46C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,11 +39,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Link/URL</t>
   </si>
   <si>
+    <t>Article1</t>
+  </si>
+  <si>
+    <t>Elma</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>meyve</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>0808101000</t>
+  </si>
+  <si>
+    <t>adet</t>
+  </si>
+  <si>
+    <t>Yiyecek</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=elma&amp;sca_esv=577106327&amp;rlz=1C5CHFA_enTR1042TR1043&amp;tbm=isch&amp;sxsrf=AM9HkKlDwMRuOesBhs6vuJ1R2DmTo8nuug:1698395201413&amp;source=lnms&amp;sa=X&amp;ved=2ahUKEwiqiKyV55WCAxWgYPEDHXtMDa4Q_AUoAXoECAEQAw&amp;biw=1440&amp;bih=821&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Tedarikçi1</t>
+  </si>
+  <si>
+    <t>Almanya</t>
+  </si>
+  <si>
+    <t>App01</t>
+  </si>
+  <si>
+    <t>Tedarikçi2</t>
+  </si>
+  <si>
+    <t>Hollanda</t>
+  </si>
+  <si>
+    <t>Item005</t>
+  </si>
+  <si>
+    <t>MERHABA12546</t>
+  </si>
+  <si>
+    <t>elmaDE</t>
+  </si>
+  <si>
     <t>Article ID</t>
   </si>
   <si>
@@ -59,6 +113,9 @@
     <t>Raw Material</t>
   </si>
   <si>
+    <t>Product Group Name</t>
+  </si>
+  <si>
     <t>Commercial Description</t>
   </si>
   <si>
@@ -104,6 +161,12 @@
     <t>HsCode-CH</t>
   </si>
   <si>
+    <t>HsCode-EU</t>
+  </si>
+  <si>
+    <t>HsCode-UK</t>
+  </si>
+  <si>
     <t>Article Description-TR</t>
   </si>
   <si>
@@ -128,10 +191,10 @@
     <t>Supplier ID-2</t>
   </si>
   <si>
-    <t>HsCode-UK</t>
-  </si>
-  <si>
-    <t>HsCode-EU</t>
+    <t>34uHv</t>
+  </si>
+  <si>
+    <t>Initial Dual Use Code</t>
   </si>
   <si>
     <t>StatCode-Export</t>
@@ -140,9 +203,6 @@
     <t>StatCode-Import</t>
   </si>
   <si>
-    <t>Initial Dual Use Code</t>
-  </si>
-  <si>
     <t>Commodity Code TARIC Export</t>
   </si>
   <si>
@@ -176,17 +236,26 @@
     <t>Manufacturer Item Code-2</t>
   </si>
   <si>
-    <t>Model No</t>
+    <t>Üretici1</t>
+  </si>
+  <si>
+    <t>Ü-1</t>
+  </si>
+  <si>
+    <t>Üretici2</t>
+  </si>
+  <si>
+    <t>Ü-2</t>
+  </si>
+  <si>
+    <t>Origin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +280,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -230,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -272,6 +347,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -288,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -297,19 +387,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,21 +408,27 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -360,7 +456,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -655,205 +751,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA3BDFA-9F95-B949-9BEF-66F29CE41C56}">
-  <dimension ref="A1:AT2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEFB7F2-2BAF-6949-AB19-870B2785B842}">
+  <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="118" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="5" width="20.6640625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="27" width="20.6640625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="35" max="35" width="13.5" customWidth="1"/>
-    <col min="36" max="46" width="20.6640625" style="3" customWidth="1"/>
+    <col min="1" max="5" width="20.59765625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="20.59765625" customWidth="1"/>
+    <col min="9" max="28" width="20.59765625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="11.59765625" customWidth="1"/>
+    <col min="30" max="30" width="10.3984375" customWidth="1"/>
+    <col min="32" max="32" width="13" customWidth="1"/>
+    <col min="36" max="36" width="13.5" customWidth="1"/>
+    <col min="37" max="46" width="20.59765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:47" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="U2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="6" t="s">
+      <c r="X2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" ht="30" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="2"/>
+      <c r="AC2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A2" xr:uid="{1EA3BDFA-9F95-B949-9BEF-66F29CE41C56}"/>
+  <autoFilter ref="A1:A2" xr:uid="{5FEFB7F2-2BAF-6949-AB19-870B2785B842}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
